--- a/analyser/outputs/ip info.xlsx
+++ b/analyser/outputs/ip info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
   <si>
     <t>type</t>
   </si>
@@ -25,85 +25,199 @@
     <t>Keys</t>
   </si>
   <si>
-    <t>157.240.245.58:56442</t>
-  </si>
-  <si>
-    <t>157.240.245.58:57182</t>
-  </si>
-  <si>
-    <t>10.239.233.249:62232</t>
-  </si>
-  <si>
-    <t>10.239.233.249:52105</t>
-  </si>
-  <si>
-    <t>128.197.29.249:36960</t>
-  </si>
-  <si>
-    <t>128.197.29.249:28071</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56180</t>
-  </si>
-  <si>
-    <t>10.239.233.249:9</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53978</t>
-  </si>
-  <si>
-    <t>157.240.245.58:52465</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55860</t>
-  </si>
-  <si>
-    <t>128.197.29.249:50060</t>
-  </si>
-  <si>
-    <t>128.197.29.249:38743</t>
-  </si>
-  <si>
-    <t>128.197.29.225:28023</t>
-  </si>
-  <si>
-    <t>10.239.25.33:55902</t>
-  </si>
-  <si>
-    <t>128.197.29.225:15914</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56078</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58341</t>
-  </si>
-  <si>
-    <t>128.197.29.249:25754</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53239</t>
-  </si>
-  <si>
-    <t>10.239.25.33:9</t>
-  </si>
-  <si>
-    <t>128.197.29.225:36307</t>
-  </si>
-  <si>
-    <t>128.197.29.225:46635</t>
+    <t>2601:19b:80:c980::bf7b:53129</t>
+  </si>
+  <si>
+    <t>157.240.245.58:52784</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:9</t>
+  </si>
+  <si>
+    <t>157.240.245.58:57509</t>
+  </si>
+  <si>
+    <t>10.0.0.191:9</t>
+  </si>
+  <si>
+    <t>10.0.0.191:53121</t>
+  </si>
+  <si>
+    <t>157.240.245.58:58596</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:53136</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59303</t>
+  </si>
+  <si>
+    <t>157.240.245.58:53337</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56227</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980::bf7b:53123</t>
+  </si>
+  <si>
+    <t>192.168.220.1:9</t>
+  </si>
+  <si>
+    <t>73.16.29.250:53133</t>
+  </si>
+  <si>
+    <t>10.0.0.191:53127</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:92e0:23f2:875e:64d:53134</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:92e0:23f2:875e:64d:53128</t>
+  </si>
+  <si>
+    <t>192.168.220.1:53120</t>
+  </si>
+  <si>
+    <t>157.240.245.58:53556</t>
+  </si>
+  <si>
+    <t>157.240.245.58:53286</t>
+  </si>
+  <si>
+    <t>157.240.245.58:55949</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54922</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56151</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:92e0:23f2:875e:64d:9</t>
+  </si>
+  <si>
+    <t>157.240.245.58:57335</t>
+  </si>
+  <si>
+    <t>192.168.138.1:53125</t>
+  </si>
+  <si>
+    <t>157.240.245.58:50989</t>
+  </si>
+  <si>
+    <t>73.16.29.250:53127</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980::bf7b:9</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51043</t>
+  </si>
+  <si>
+    <t>192.168.138.1:9</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:53130</t>
+  </si>
+  <si>
+    <t>157.240.245.58:53105</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54378</t>
+  </si>
+  <si>
+    <t>192.168.220.1:53132</t>
+  </si>
+  <si>
+    <t>192.168.138.1:53119</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59750</t>
+  </si>
+  <si>
+    <t>10.0.0.191:53133</t>
+  </si>
+  <si>
+    <t>157.240.245.58:53658</t>
+  </si>
+  <si>
+    <t>73.16.29.250:53121</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56694</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:92e0:23f2:875e:64d:53122</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56925</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:53124</t>
+  </si>
+  <si>
+    <t>192.168.138.1:53131</t>
+  </si>
+  <si>
+    <t>192.168.220.1:53126</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980::bf7b:53135</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54597</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51013</t>
+  </si>
+  <si>
+    <t>157.240.245.58:52208</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59808</t>
+  </si>
+  <si>
+    <t>157.240.241.58:50567</t>
+  </si>
+  <si>
+    <t>107.122.192.82:63227</t>
+  </si>
+  <si>
+    <t>157.240.241.58:57371</t>
+  </si>
+  <si>
+    <t>2600:381:9417:3169:e8da:5600:66dd:fff3:60305</t>
+  </si>
+  <si>
+    <t>157.240.241.58:50337</t>
+  </si>
+  <si>
+    <t>157.240.241.58:51862</t>
+  </si>
+  <si>
+    <t>172.20.10.11:62476</t>
+  </si>
+  <si>
+    <t>157.240.241.58:55534</t>
+  </si>
+  <si>
+    <t>157.240.241.58:55141</t>
+  </si>
+  <si>
+    <t>172.20.10.11:9</t>
+  </si>
+  <si>
+    <t>2600:381:9417:3169:e8da:5600:66dd:fff3:9</t>
+  </si>
+  <si>
+    <t>host</t>
   </si>
   <si>
     <t>relay</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>srflx</t>
-  </si>
-  <si>
-    <t>prflx</t>
   </si>
   <si>
     <t>caller</t>
@@ -467,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -500,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -522,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -533,10 +647,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -544,10 +658,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -555,10 +669,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -566,10 +680,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -577,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -588,10 +702,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -599,10 +713,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -610,10 +724,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -621,10 +735,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -632,10 +746,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -643,10 +757,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -654,10 +768,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -665,10 +779,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -676,10 +790,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -687,10 +801,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -698,10 +812,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -709,10 +823,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -720,10 +834,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -731,10 +845,439 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/analyser/outputs/ip info.xlsx
+++ b/analyser/outputs/ip info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -25,199 +25,112 @@
     <t>Keys</t>
   </si>
   <si>
-    <t>2601:19b:80:c980::bf7b:53129</t>
-  </si>
-  <si>
-    <t>157.240.245.58:52784</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:9</t>
-  </si>
-  <si>
-    <t>157.240.245.58:57509</t>
-  </si>
-  <si>
-    <t>10.0.0.191:9</t>
-  </si>
-  <si>
-    <t>10.0.0.191:53121</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58596</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:53136</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59303</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53337</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56227</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980::bf7b:53123</t>
-  </si>
-  <si>
-    <t>192.168.220.1:9</t>
-  </si>
-  <si>
-    <t>73.16.29.250:53133</t>
-  </si>
-  <si>
-    <t>10.0.0.191:53127</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:92e0:23f2:875e:64d:53134</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:92e0:23f2:875e:64d:53128</t>
-  </si>
-  <si>
-    <t>192.168.220.1:53120</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53556</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53286</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55949</t>
-  </si>
-  <si>
-    <t>157.240.245.58:54922</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56151</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:92e0:23f2:875e:64d:9</t>
-  </si>
-  <si>
-    <t>157.240.245.58:57335</t>
-  </si>
-  <si>
-    <t>192.168.138.1:53125</t>
-  </si>
-  <si>
-    <t>157.240.245.58:50989</t>
-  </si>
-  <si>
-    <t>73.16.29.250:53127</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980::bf7b:9</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51043</t>
-  </si>
-  <si>
-    <t>192.168.138.1:9</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:53130</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53105</t>
-  </si>
-  <si>
-    <t>157.240.245.58:54378</t>
-  </si>
-  <si>
-    <t>192.168.220.1:53132</t>
-  </si>
-  <si>
-    <t>192.168.138.1:53119</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59750</t>
-  </si>
-  <si>
-    <t>10.0.0.191:53133</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53658</t>
-  </si>
-  <si>
-    <t>73.16.29.250:53121</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56694</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:92e0:23f2:875e:64d:53122</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56925</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:53124</t>
-  </si>
-  <si>
-    <t>192.168.138.1:53131</t>
-  </si>
-  <si>
-    <t>192.168.220.1:53126</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980::bf7b:53135</t>
-  </si>
-  <si>
-    <t>157.240.245.58:54597</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51013</t>
-  </si>
-  <si>
-    <t>157.240.245.58:52208</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59808</t>
-  </si>
-  <si>
-    <t>157.240.241.58:50567</t>
-  </si>
-  <si>
-    <t>107.122.192.82:63227</t>
-  </si>
-  <si>
-    <t>157.240.241.58:57371</t>
-  </si>
-  <si>
-    <t>2600:381:9417:3169:e8da:5600:66dd:fff3:60305</t>
-  </si>
-  <si>
-    <t>157.240.241.58:50337</t>
-  </si>
-  <si>
-    <t>157.240.241.58:51862</t>
-  </si>
-  <si>
-    <t>172.20.10.11:62476</t>
-  </si>
-  <si>
-    <t>157.240.241.58:55534</t>
-  </si>
-  <si>
-    <t>157.240.241.58:55141</t>
-  </si>
-  <si>
-    <t>172.20.10.11:9</t>
-  </si>
-  <si>
-    <t>2600:381:9417:3169:e8da:5600:66dd:fff3:9</t>
+    <t>157.240.245.58:55628</t>
+  </si>
+  <si>
+    <t>157.240.245.58:52627</t>
+  </si>
+  <si>
+    <t>157.240.245.58:58630</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51044</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54521</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:59140</t>
+  </si>
+  <si>
+    <t>157.240.245.58:50229</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56316</t>
+  </si>
+  <si>
+    <t>157.240.245.58:58319</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56651</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51262</t>
+  </si>
+  <si>
+    <t>73.16.29.250:59139</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:59138</t>
+  </si>
+  <si>
+    <t>73.16.29.250:59137</t>
+  </si>
+  <si>
+    <t>157.240.245.58:52248</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54542</t>
+  </si>
+  <si>
+    <t>157.240.245.58:58207</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59541</t>
+  </si>
+  <si>
+    <t>157.240.245.58:57495</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59009</t>
+  </si>
+  <si>
+    <t>157.240.245.58:52376</t>
+  </si>
+  <si>
+    <t>73.16.29.250:59141</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:59142</t>
+  </si>
+  <si>
+    <t>157.240.245.58:58786</t>
+  </si>
+  <si>
+    <t>157.240.245.58:52442</t>
+  </si>
+  <si>
+    <t>157.240.245.58:50421</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:1568:106d:e4fb:722:62477</t>
+  </si>
+  <si>
+    <t>157.240.245.58:58536</t>
+  </si>
+  <si>
+    <t>157.240.245.58:58780</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54426</t>
+  </si>
+  <si>
+    <t>73.16.29.250:53728</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54167</t>
+  </si>
+  <si>
+    <t>10.0.0.236:53728</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>srflx</t>
   </si>
   <si>
     <t>host</t>
-  </si>
-  <si>
-    <t>relay</t>
-  </si>
-  <si>
-    <t>srflx</t>
   </si>
   <si>
     <t>caller</t>
@@ -581,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -614,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -625,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -636,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -647,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -658,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -669,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -680,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -691,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -702,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -713,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -724,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -735,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -746,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -757,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -768,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -779,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -790,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -801,10 +714,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -812,10 +725,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -823,10 +736,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -834,10 +747,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -845,10 +758,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -856,10 +769,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -867,10 +780,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -878,10 +791,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -889,10 +802,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -900,10 +813,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -911,10 +824,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -922,10 +835,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -933,10 +846,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -944,10 +857,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -955,329 +868,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/analyser/outputs/ip info.xlsx
+++ b/analyser/outputs/ip info.xlsx
@@ -25,103 +25,103 @@
     <t>Keys</t>
   </si>
   <si>
-    <t>157.240.245.58:55628</t>
-  </si>
-  <si>
-    <t>157.240.245.58:52627</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58630</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51044</t>
-  </si>
-  <si>
-    <t>157.240.245.58:54521</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:59140</t>
-  </si>
-  <si>
-    <t>157.240.245.58:50229</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56316</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58319</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56651</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51262</t>
-  </si>
-  <si>
-    <t>73.16.29.250:59139</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:59138</t>
-  </si>
-  <si>
-    <t>73.16.29.250:59137</t>
-  </si>
-  <si>
-    <t>157.240.245.58:52248</t>
-  </si>
-  <si>
-    <t>157.240.245.58:54542</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58207</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59541</t>
-  </si>
-  <si>
-    <t>157.240.245.58:57495</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59009</t>
-  </si>
-  <si>
-    <t>157.240.245.58:52376</t>
-  </si>
-  <si>
-    <t>73.16.29.250:59141</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:59142</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58786</t>
-  </si>
-  <si>
-    <t>157.240.245.58:52442</t>
-  </si>
-  <si>
-    <t>157.240.245.58:50421</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:1568:106d:e4fb:722:62477</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58536</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58780</t>
-  </si>
-  <si>
-    <t>157.240.245.58:54426</t>
-  </si>
-  <si>
-    <t>73.16.29.250:53728</t>
-  </si>
-  <si>
-    <t>157.240.245.58:54167</t>
-  </si>
-  <si>
-    <t>10.0.0.236:53728</t>
+    <t>157.240.245.58:56673</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:58554</t>
+  </si>
+  <si>
+    <t>157.240.245.58:50438</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59642</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:58550</t>
+  </si>
+  <si>
+    <t>157.240.245.58:53900</t>
+  </si>
+  <si>
+    <t>73.16.29.250:58549</t>
+  </si>
+  <si>
+    <t>157.240.245.58:57958</t>
+  </si>
+  <si>
+    <t>73.16.29.250:58553</t>
+  </si>
+  <si>
+    <t>73.16.29.250:58551</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51109</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:58552</t>
+  </si>
+  <si>
+    <t>157.240.245.58:55052</t>
+  </si>
+  <si>
+    <t>157.240.245.58:57877</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59067</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51591</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51222</t>
+  </si>
+  <si>
+    <t>157.240.245.58:55674</t>
+  </si>
+  <si>
+    <t>157.240.245.58:55961</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51781</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59741</t>
+  </si>
+  <si>
+    <t>157.240.245.58:53393</t>
+  </si>
+  <si>
+    <t>157.240.245.58:55348</t>
+  </si>
+  <si>
+    <t>157.240.245.58:52892</t>
+  </si>
+  <si>
+    <t>157.240.245.58:59526</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56931</t>
+  </si>
+  <si>
+    <t>157.240.245.58:55754</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54931</t>
+  </si>
+  <si>
+    <t>73.16.29.250:54293</t>
+  </si>
+  <si>
+    <t>10.0.0.236:54293</t>
+  </si>
+  <si>
+    <t>157.240.245.58:50631</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56520</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:41fd:53de:d545:c74c:64017</t>
   </si>
   <si>
     <t>relay</t>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -659,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -747,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -758,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -802,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
@@ -824,7 +824,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
@@ -835,7 +835,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>

--- a/analyser/outputs/ip info.xlsx
+++ b/analyser/outputs/ip info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>type</t>
   </si>
@@ -25,112 +25,67 @@
     <t>Keys</t>
   </si>
   <si>
-    <t>157.240.245.58:56673</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:58554</t>
-  </si>
-  <si>
-    <t>157.240.245.58:50438</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59642</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:58550</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53900</t>
-  </si>
-  <si>
-    <t>73.16.29.250:58549</t>
-  </si>
-  <si>
-    <t>157.240.245.58:57958</t>
-  </si>
-  <si>
-    <t>73.16.29.250:58553</t>
-  </si>
-  <si>
-    <t>73.16.29.250:58551</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51109</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:fd90:d9f3:437e:ed71:58552</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55052</t>
-  </si>
-  <si>
-    <t>157.240.245.58:57877</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59067</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51591</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51222</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55674</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55961</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51781</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59741</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53393</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55348</t>
-  </si>
-  <si>
-    <t>157.240.245.58:52892</t>
-  </si>
-  <si>
-    <t>157.240.245.58:59526</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56931</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55754</t>
-  </si>
-  <si>
-    <t>157.240.245.58:54931</t>
-  </si>
-  <si>
-    <t>73.16.29.250:54293</t>
-  </si>
-  <si>
-    <t>10.0.0.236:54293</t>
-  </si>
-  <si>
-    <t>157.240.245.58:50631</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56520</t>
-  </si>
-  <si>
-    <t>2601:19b:80:c980:41fd:53de:d545:c74c:64017</t>
+    <t>128.197.29.224:48515</t>
+  </si>
+  <si>
+    <t>157.240.245.58:53320</t>
+  </si>
+  <si>
+    <t>128.197.29.224:22758</t>
+  </si>
+  <si>
+    <t>157.240.245.58:58861</t>
+  </si>
+  <si>
+    <t>157.240.245.58:57637</t>
+  </si>
+  <si>
+    <t>157.240.245.58:55671</t>
+  </si>
+  <si>
+    <t>128.197.29.224:35054</t>
+  </si>
+  <si>
+    <t>128.197.29.224:9873</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51513</t>
+  </si>
+  <si>
+    <t>157.240.245.58:51568</t>
+  </si>
+  <si>
+    <t>157.240.245.58:50193</t>
+  </si>
+  <si>
+    <t>128.197.29.224:30657</t>
+  </si>
+  <si>
+    <t>157.240.245.58:54642</t>
+  </si>
+  <si>
+    <t>157.240.245.58:56602</t>
+  </si>
+  <si>
+    <t>128.197.29.224:31126</t>
+  </si>
+  <si>
+    <t>157.240.240.58:57139</t>
+  </si>
+  <si>
+    <t>157.240.240.58:53592</t>
+  </si>
+  <si>
+    <t>157.240.240.58:56599</t>
+  </si>
+  <si>
+    <t>204.8.153.51:16482</t>
+  </si>
+  <si>
+    <t>srflx</t>
   </si>
   <si>
     <t>relay</t>
-  </si>
-  <si>
-    <t>srflx</t>
-  </si>
-  <si>
-    <t>host</t>
   </si>
   <si>
     <t>caller</t>
@@ -494,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +482,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +504,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +515,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +526,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +537,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +548,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +559,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +581,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +592,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +603,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +614,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +625,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +636,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +647,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +658,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,164 +669,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/analyser/outputs/ip info.xlsx
+++ b/analyser/outputs/ip info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>type</t>
   </si>
@@ -25,67 +25,19 @@
     <t>Keys</t>
   </si>
   <si>
-    <t>157.240.245.58:53277</t>
-  </si>
-  <si>
-    <t>128.197.29.224:32808</t>
-  </si>
-  <si>
-    <t>157.240.245.58:56077</t>
-  </si>
-  <si>
-    <t>128.197.29.224:32686</t>
-  </si>
-  <si>
-    <t>157.240.245.58:58115</t>
-  </si>
-  <si>
-    <t>128.197.29.224:20067</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53229</t>
-  </si>
-  <si>
-    <t>157.240.245.58:57004</t>
-  </si>
-  <si>
-    <t>157.240.245.58:55649</t>
-  </si>
-  <si>
-    <t>128.197.29.224:7916</t>
-  </si>
-  <si>
-    <t>128.197.29.224:46856</t>
-  </si>
-  <si>
-    <t>157.240.245.58:51526</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53136</t>
-  </si>
-  <si>
-    <t>128.197.29.224:2150</t>
-  </si>
-  <si>
-    <t>157.240.245.58:53474</t>
-  </si>
-  <si>
-    <t>204.8.153.51:59850</t>
-  </si>
-  <si>
-    <t>157.240.240.58:56273</t>
-  </si>
-  <si>
-    <t>157.240.240.58:55152</t>
-  </si>
-  <si>
-    <t>157.240.240.58:53209</t>
-  </si>
-  <si>
-    <t>relay</t>
-  </si>
-  <si>
-    <t>srflx</t>
+    <t>10.0.0.191:59667 (related)</t>
+  </si>
+  <si>
+    <t>66.22.212.159:50021</t>
+  </si>
+  <si>
+    <t>10.0.0.33:50784 (related)</t>
+  </si>
+  <si>
+    <t>prflx</t>
+  </si>
+  <si>
+    <t>host</t>
   </si>
   <si>
     <t>caller</t>
@@ -449,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +423,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,186 +445,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/analyser/outputs/ip info.xlsx
+++ b/analyser/outputs/ip info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
@@ -22,28 +22,127 @@
     <t>location</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
     <t>Keys</t>
   </si>
   <si>
-    <t>10.0.0.191:59667 (related)</t>
-  </si>
-  <si>
-    <t>66.22.212.159:50021</t>
-  </si>
-  <si>
-    <t>10.0.0.33:50784 (related)</t>
+    <t>157.240.245.58_56442</t>
+  </si>
+  <si>
+    <t>157.240.245.58_57182</t>
+  </si>
+  <si>
+    <t>10.239.233.249_62232</t>
+  </si>
+  <si>
+    <t>10.239.233.249_52105</t>
+  </si>
+  <si>
+    <t>128.197.29.249_36960</t>
+  </si>
+  <si>
+    <t>128.197.29.249_28071</t>
+  </si>
+  <si>
+    <t>157.240.245.58_56180</t>
+  </si>
+  <si>
+    <t>10.239.233.249_9</t>
+  </si>
+  <si>
+    <t>157.240.245.58_53978</t>
+  </si>
+  <si>
+    <t>157.240.245.58_52465</t>
+  </si>
+  <si>
+    <t>157.240.245.58_55860</t>
+  </si>
+  <si>
+    <t>128.197.29.249_50060</t>
+  </si>
+  <si>
+    <t>128.197.29.249_38743</t>
+  </si>
+  <si>
+    <t>128.197.29.225_28023</t>
+  </si>
+  <si>
+    <t>10.239.25.33_55902</t>
+  </si>
+  <si>
+    <t>128.197.29.225_15914</t>
+  </si>
+  <si>
+    <t>157.240.245.58_56078</t>
+  </si>
+  <si>
+    <t>157.240.245.58_58341</t>
+  </si>
+  <si>
+    <t>128.197.29.249_25754</t>
+  </si>
+  <si>
+    <t>157.240.245.58_53239</t>
+  </si>
+  <si>
+    <t>10.239.25.33_9</t>
+  </si>
+  <si>
+    <t>128.197.29.225_36307</t>
+  </si>
+  <si>
+    <t>128.197.29.225_46635</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>srflx</t>
   </si>
   <si>
     <t>prflx</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>caller</t>
   </si>
   <si>
     <t>receiver</t>
+  </si>
+  <si>
+    <t>1_video</t>
+  </si>
+  <si>
+    <t>0_audio</t>
+  </si>
+  <si>
+    <t>udp</t>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>128.197.29.249_42250</t>
+  </si>
+  <si>
+    <t>128.197.29.249_11161</t>
+  </si>
+  <si>
+    <t>128.197.29.225_38137</t>
+  </si>
+  <si>
+    <t>128.197.29.225_3405</t>
   </si>
 </sst>
 </file>
@@ -401,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -417,38 +516,381 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/analyser/outputs/ip info.xlsx
+++ b/analyser/outputs/ip info.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51617 (related)</t>
+          <t>73.16.29.250_6612 (related)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_3532 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6610 (related)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51617</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49548 (related)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>srflx</t>
+          <t>relay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_51620</t>
+          <t>73.16.29.250_49545</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -541,26 +541,14 @@
           <t>caller</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>udp</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.0.0.0_0</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_51616 (related)</t>
+          <t>73.16.29.250_6617 (related)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -580,7 +568,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3525 (related)</t>
+          <t>73.16.29.250_6616 (related)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -600,12 +588,12 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_3531 (related)</t>
+          <t>73.16.29.250_49547</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>relay</t>
+          <t>srflx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -613,14 +601,26 @@
           <t>caller</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1_video</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>udp</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.0.0.0_0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3526 (related)</t>
+          <t>73.16.29.250_6613 (related)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3534 (related)</t>
+          <t>73.16.29.250_49545 (related)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -660,12 +660,12 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3530 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49546</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>relay</t>
+          <t>srflx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -680,7 +680,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_3527 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6615 (related)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51619 (related)</t>
+          <t>73.16.29.250_6609 (related)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -720,12 +720,12 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_51618</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49550 (related)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>srflx</t>
+          <t>relay</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -733,31 +733,19 @@
           <t>caller</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1_video</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>udp</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.0.0.0_0</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_51616</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49546 (related)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>srflx</t>
+          <t>relay</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -772,12 +760,12 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_51618 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49550</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>relay</t>
+          <t>srflx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -785,19 +773,31 @@
           <t>caller</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>udp</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>::_0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51619</t>
+          <t>73.16.29.250_49547 (related)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>srflx</t>
+          <t>relay</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -805,26 +805,14 @@
           <t>caller</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1_video</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>udp</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>::_0</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51621</t>
+          <t>73.16.29.250_49549</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -849,14 +837,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>::_0</t>
+          <t>0.0.0.0_0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51621 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6618 (related)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -876,7 +864,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_3528 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6614 (related)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,7 +884,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3529 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6611 (related)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -916,12 +904,12 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3533 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49548</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>relay</t>
+          <t>srflx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -929,14 +917,26 @@
           <t>caller</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1_video</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>udp</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>::_0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_51620 (related)</t>
+          <t>73.16.29.250_49549 (related)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_3523 (related)</t>
+          <t>73.16.29.250_6608 (related)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_3524 (related)</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6619 (related)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_56461 (related)</t>
+          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_57060 (related)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1016,7 +1016,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_61556 (related)</t>
+          <t>73.16.29.250_57057 (related)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1036,12 +1036,12 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_56462 (related)</t>
+          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_52788</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>relay</t>
+          <t>srflx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1049,19 +1049,31 @@
           <t>receiver</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0_audio</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>udp</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>::_0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_56460 (related)</t>
+          <t>73.16.29.250_52787</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>relay</t>
+          <t>srflx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1069,19 +1081,31 @@
           <t>receiver</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0_audio</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>udp</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.0.0.0_0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_61555</t>
+          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_57059 (related)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>srflx</t>
+          <t>relay</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1089,26 +1113,14 @@
           <t>receiver</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0_audio</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>udp</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.0.0.0_0</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_56463 (related)</t>
+          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_52788 (related)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1128,12 +1140,12 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_61556</t>
+          <t>73.16.29.250_52787 (related)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>srflx</t>
+          <t>relay</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1141,26 +1153,14 @@
           <t>receiver</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0_audio</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>udp</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>::_0</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>73.16.29.250_61555 (related)</t>
+          <t>73.16.29.250_57058 (related)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>700a1692-9e95-4dcd-8c8f-befbd32ac751.local_51616</t>
+          <t>1558d67c-3835-4a88-b706-2775ff195495.local_49545</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>6bde0516-c3a1-4737-8259-0ebdfc74425c.local_51617</t>
+          <t>cc9b498c-e7f2-40d4-9758-da04bdc6e870.local_49546</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>700a1692-9e95-4dcd-8c8f-befbd32ac751.local_51618</t>
+          <t>1558d67c-3835-4a88-b706-2775ff195495.local_49547</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>6bde0516-c3a1-4737-8259-0ebdfc74425c.local_51619</t>
+          <t>cc9b498c-e7f2-40d4-9758-da04bdc6e870.local_49548</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>700a1692-9e95-4dcd-8c8f-befbd32ac751.local_51620</t>
+          <t>1558d67c-3835-4a88-b706-2775ff195495.local_49549</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>6bde0516-c3a1-4737-8259-0ebdfc74425c.local_51621</t>
+          <t>cc9b498c-e7f2-40d4-9758-da04bdc6e870.local_49550</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_58006</t>
+          <t>157.240.245.58_56150</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1335,7 +1335,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1_video</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1345,14 +1345,14 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51619</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49550</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_59377</t>
+          <t>157.240.245.58_56307</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1363,7 +1363,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0_audio</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>73.16.29.250_51620</t>
+          <t>73.16.29.250_49545</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_59317</t>
+          <t>157.240.245.58_53357</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1391,7 +1391,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0_audio</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1401,14 +1401,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>73.16.29.250_51616</t>
+          <t>73.16.29.250_49549</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_54685</t>
+          <t>157.240.245.58_55456</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1429,14 +1429,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>73.16.29.250_51618</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49548</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_54398</t>
+          <t>157.240.245.58_59137</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1457,14 +1457,14 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51617</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_49546</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_55721</t>
+          <t>157.240.245.58_54240</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1475,7 +1475,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1_video</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1485,14 +1485,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_51621</t>
+          <t>73.16.29.250_49547</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_59816</t>
+          <t>157.240.245.58_56924</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1503,7 +1503,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0_audio</t>
+          <t>1_video</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3526</t>
+          <t>73.16.29.250_6612</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_51941</t>
+          <t>157.240.245.58_58436</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1541,14 +1541,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3525</t>
+          <t>73.16.29.250_6609</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_51418</t>
+          <t>157.240.245.58_57846</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1559,7 +1559,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0_audio</t>
+          <t>1_video</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1569,14 +1569,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>73.16.29.250_3524</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6615</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_50486</t>
+          <t>157.240.245.58_51086</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3530</t>
+          <t>73.16.29.250_6613</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_58937</t>
+          <t>157.240.245.58_51265</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1625,14 +1625,14 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>73.16.29.250_3532</t>
+          <t>73.16.29.250_6617</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_58282</t>
+          <t>157.240.245.58_59000</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1653,14 +1653,14 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>73.16.29.250_3523</t>
+          <t>73.16.29.250_6608</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_53377</t>
+          <t>157.240.245.58_51190</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1671,7 +1671,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1_video</t>
+          <t>0_audio</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1681,14 +1681,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>73.16.29.250_3527</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6611</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_51749</t>
+          <t>157.240.245.58_57672</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1699,7 +1699,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1_video</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1709,14 +1709,14 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>73.16.29.250_3531</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6614</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_54330</t>
+          <t>157.240.245.58_50194</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1737,14 +1737,14 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3533</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6619</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_50335</t>
+          <t>157.240.245.58_57728</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1755,7 +1755,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0_audio</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3534</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6610</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_54854</t>
+          <t>157.240.245.58_55917</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1783,7 +1783,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1_video</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_3529</t>
+          <t>2601:19b:80:c980:8cbc:eac8:baca:e8f8_6618</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_51848</t>
+          <t>157.240.245.58_54258</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1811,7 +1811,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1_video</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1821,14 +1821,14 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>73.16.29.250_3528</t>
+          <t>73.16.29.250_6616</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>f43c106f-ce5d-4be8-b417-71ae62be6770.local_61555</t>
+          <t>d5d42750-4f03-461b-80c0-174e959d0ec7.local_52787</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>044edf2d-1d60-4dd4-9048-bb6f0ec56181.local_61556</t>
+          <t>981b29d1-a7d2-40f0-8880-ac90ee67fe0c.local_52788</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_56128</t>
+          <t>157.240.245.58_53803</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1897,14 +1897,14 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>73.16.29.250_61555</t>
+          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_52788</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_56290</t>
+          <t>157.240.245.58_50196</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1925,14 +1925,14 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_61556</t>
+          <t>73.16.29.250_52787</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_53956</t>
+          <t>157.240.245.58_52787</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>73.16.29.250_56461</t>
+          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_57060</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_58044</t>
+          <t>157.240.245.58_52518</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1981,14 +1981,14 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>73.16.29.250_56460</t>
+          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_57059</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_51989</t>
+          <t>157.240.245.58_59327</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_56462</t>
+          <t>73.16.29.250_57058</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>157.240.245.58_53021</t>
+          <t>157.240.245.58_51754</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2601:19b:80:c980:7474:46df:3ce7:d9a6_56463</t>
+          <t>73.16.29.250_57057</t>
         </is>
       </c>
     </row>
